--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/RogueBoy_Pokitto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD96431D-62DE-6842-A1D2-259DCA3B79E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFD2EDD-268F-F841-BEC7-1CFA52F7B678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11100" yWindow="2900" windowWidth="32840" windowHeight="22360" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
 </sst>
 </file>
@@ -394,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26877685-76DE-E24D-ABD4-9D5C27628923}">
-  <dimension ref="A1:AP42"/>
+  <dimension ref="A1:BJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,7 +415,7 @@
     <col min="42" max="42" width="3.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="C1">
         <v>1</v>
       </c>
@@ -519,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -528,34 +534,19 @@
         <v>2</v>
       </c>
       <c r="V2" s="2"/>
+      <c r="W2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="AF2" s="2"/>
+      <c r="AG2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>0</v>
-      </c>
       <c r="X3" t="s">
         <v>0</v>
       </c>
@@ -577,24 +568,35 @@
       <c r="AD3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AJ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2"/>
+      <c r="BJ3" s="2"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>0</v>
       </c>
       <c r="W4" t="s">
@@ -603,41 +605,34 @@
       <c r="AE4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AI4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2"/>
+      <c r="BJ4" s="2"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
       <c r="O5" t="s">
         <v>0</v>
       </c>
-      <c r="P5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>0</v>
-      </c>
       <c r="S5" t="s">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
-        <v>0</v>
-      </c>
       <c r="W5" t="s">
         <v>0</v>
       </c>
+      <c r="Y5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>0</v>
+      </c>
       <c r="AA5" t="s">
         <v>0</v>
       </c>
@@ -650,12 +645,35 @@
       <c r="AE5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AH5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="2"/>
+      <c r="BJ5" s="2"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -664,7 +682,10 @@
       <c r="K6" t="s">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
@@ -673,38 +694,60 @@
       <c r="W6" t="s">
         <v>0</v>
       </c>
-      <c r="AC6" t="s">
-        <v>0</v>
-      </c>
       <c r="AE6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AG6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="2"/>
+      <c r="BJ6" s="2"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="W7" t="s">
         <v>0</v>
       </c>
-      <c r="Y7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AG7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2"/>
+      <c r="BJ7" s="2"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>0</v>
       </c>
       <c r="J8" t="s">
@@ -713,7 +756,10 @@
       <c r="K8" t="s">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
@@ -722,47 +768,46 @@
       <c r="W8" t="s">
         <v>0</v>
       </c>
-      <c r="Y8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>0</v>
-      </c>
       <c r="AE8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AG8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2"/>
+      <c r="BJ8" s="2"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>0</v>
-      </c>
       <c r="S9" t="s">
         <v>0</v>
       </c>
-      <c r="U9" t="s">
-        <v>0</v>
-      </c>
       <c r="W9" t="s">
         <v>0</v>
       </c>
@@ -784,8 +829,31 @@
       <c r="AE9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AG9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2"/>
+      <c r="BJ9" s="2"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -795,10 +863,10 @@
       <c r="H10" t="s">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="P10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="W10" t="s">
@@ -807,8 +875,16 @@
       <c r="AE10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AG10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2"/>
+      <c r="BJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -818,24 +894,12 @@
       <c r="H11" t="s">
         <v>0</v>
       </c>
-      <c r="N11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>0</v>
-      </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
-      <c r="S11" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
-        <v>0</v>
-      </c>
       <c r="X11" t="s">
         <v>0</v>
       </c>
@@ -854,8 +918,28 @@
       <c r="AD11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="2"/>
+      <c r="BJ11" s="2"/>
+    </row>
+    <row r="12" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,22 +948,22 @@
       <c r="AF12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>

--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/RogueBoy_Pokitto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFD2EDD-268F-F841-BEC7-1CFA52F7B678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE440FED-1E9B-B44B-A54F-B2C7E0F89C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11100" yWindow="2900" windowWidth="32840" windowHeight="22360" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -36,20 +36,36 @@
     <t>01</t>
   </si>
   <si>
-    <t>02</t>
+    <t>02A</t>
   </si>
   <si>
-    <t>03</t>
+    <t>02B</t>
+  </si>
+  <si>
+    <t>02C</t>
+  </si>
+  <si>
+    <t>03A</t>
+  </si>
+  <si>
+    <t>03B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26877685-76DE-E24D-ABD4-9D5C27628923}">
-  <dimension ref="A1:BJ42"/>
+  <dimension ref="A1:BS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,7 +432,7 @@
     <col min="42" max="42" width="3.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="C1">
         <v>1</v>
       </c>
@@ -524,26 +541,58 @@
       <c r="AO1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
+      <c r="AQ1">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3" t="s">
+      <c r="AR1">
         <v>2</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="3" t="s">
+      <c r="AS1">
         <v>3</v>
       </c>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="3" t="s">
+      <c r="AT1">
         <v>4</v>
       </c>
-      <c r="AP2" s="2"/>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AU1">
+        <v>5</v>
+      </c>
+      <c r="AV1">
+        <v>6</v>
+      </c>
+      <c r="AW1">
+        <v>7</v>
+      </c>
+      <c r="AX1">
+        <v>8</v>
+      </c>
+      <c r="AY1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -568,6 +617,12 @@
       <c r="AD3" t="s">
         <v>0</v>
       </c>
+      <c r="AH3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>0</v>
+      </c>
       <c r="AJ3" t="s">
         <v>0</v>
       </c>
@@ -583,10 +638,61 @@
       <c r="AN3" t="s">
         <v>0</v>
       </c>
+      <c r="AR3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ3" s="2"/>
+      <c r="BD3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ3" s="2"/>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BN3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -605,16 +711,34 @@
       <c r="AE4" t="s">
         <v>0</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AG4" t="s">
         <v>0</v>
       </c>
       <c r="AO4" t="s">
         <v>0</v>
       </c>
+      <c r="AQ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ4" s="2"/>
+      <c r="BC4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ4" s="2"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BM4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -627,25 +751,16 @@
       <c r="W5" t="s">
         <v>0</v>
       </c>
-      <c r="Y5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>0</v>
-      </c>
       <c r="AE5" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AG5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>0</v>
       </c>
       <c r="AK5" t="s">
@@ -660,10 +775,37 @@
       <c r="AO5" t="s">
         <v>0</v>
       </c>
+      <c r="AQ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ5" s="2"/>
+      <c r="BB5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ5" s="2"/>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BL5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -700,19 +842,46 @@
       <c r="AG6" t="s">
         <v>0</v>
       </c>
-      <c r="AL6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>0</v>
-      </c>
       <c r="AO6" t="s">
         <v>0</v>
       </c>
+      <c r="AQ6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ6" s="2"/>
+      <c r="BA6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ6" s="2"/>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BK6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -728,16 +897,31 @@
       <c r="AG7" t="s">
         <v>0</v>
       </c>
-      <c r="AI7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="s">
+      <c r="AQ7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="s">
         <v>0</v>
       </c>
       <c r="AZ7" s="2"/>
+      <c r="BA7" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ7" s="2"/>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BK7" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -774,25 +958,52 @@
       <c r="AG8" t="s">
         <v>0</v>
       </c>
-      <c r="AI8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>0</v>
-      </c>
       <c r="AO8" t="s">
         <v>0</v>
       </c>
+      <c r="AQ8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ8" s="2"/>
+      <c r="BA8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ8" s="2"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BK8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -811,21 +1022,6 @@
       <c r="W9" t="s">
         <v>0</v>
       </c>
-      <c r="Y9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>0</v>
-      </c>
       <c r="AE9" t="s">
         <v>0</v>
       </c>
@@ -850,10 +1046,43 @@
       <c r="AO9" t="s">
         <v>0</v>
       </c>
+      <c r="AQ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ9" s="2"/>
+      <c r="BA9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ9" s="2"/>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BK9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -881,10 +1110,28 @@
       <c r="AO10" t="s">
         <v>0</v>
       </c>
+      <c r="AQ10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ10" s="2"/>
+      <c r="BA10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ10" s="2"/>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BK10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -936,10 +1183,64 @@
       <c r="AN11" t="s">
         <v>0</v>
       </c>
+      <c r="AR11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ11" s="2"/>
+      <c r="BB11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ11" s="2"/>
-    </row>
-    <row r="12" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BL11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,22 +1249,22 @@
       <c r="AF12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>

--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/RogueBoy_Pokitto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Femto-v0.1.2\projects\RogueBoy_Pokitto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE440FED-1E9B-B44B-A54F-B2C7E0F89C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AFA78F-3241-4E2B-A3B8-C2CA9F0251C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="2900" windowWidth="32840" windowHeight="22360" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
+    <workbookView xWindow="-110" yWindow="-50" windowWidth="19180" windowHeight="10180" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="26">
   <si>
     <t>x</t>
   </si>
@@ -49,13 +56,67 @@
   </si>
   <si>
     <t>03B</t>
+  </si>
+  <si>
+    <t>  // 0, 1, 2, 3, 4, 5, 6, 7, 8</t>
+  </si>
+  <si>
+    <t>    38</t>
+  </si>
+  <si>
+    <t>  // 0</t>
+  </si>
+  <si>
+    <t>    29</t>
+  </si>
+  <si>
+    <t> 0</t>
+  </si>
+  <si>
+    <t>  // 1</t>
+  </si>
+  <si>
+    <t>    21</t>
+  </si>
+  <si>
+    <t>  // 2</t>
+  </si>
+  <si>
+    <t>    35</t>
+  </si>
+  <si>
+    <t>  // 3</t>
+  </si>
+  <si>
+    <t>     0</t>
+  </si>
+  <si>
+    <t>  // 4</t>
+  </si>
+  <si>
+    <t>    36</t>
+  </si>
+  <si>
+    <t>  // 5</t>
+  </si>
+  <si>
+    <t>  // 6</t>
+  </si>
+  <si>
+    <t>  // 7</t>
+  </si>
+  <si>
+    <t>    31</t>
+  </si>
+  <si>
+    <t>  // 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,6 +130,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,12 +169,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,13 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26877685-76DE-E24D-ABD4-9D5C27628923}">
-  <dimension ref="A1:BS42"/>
+  <dimension ref="A1:BK42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="3.1640625" style="1"/>
     <col min="12" max="12" width="3.1640625" style="2"/>
@@ -432,7 +510,7 @@
     <col min="42" max="42" width="3.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.35">
       <c r="C1">
         <v>1</v>
       </c>
@@ -569,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -592,655 +670,292 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="s">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>0</v>
       </c>
       <c r="AZ3" s="2"/>
-      <c r="BD3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ3" s="2"/>
-      <c r="BN3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="s">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
         <v>0</v>
       </c>
       <c r="AZ4" s="2"/>
-      <c r="BC4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ4" s="2"/>
-      <c r="BM4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
       <c r="O5" t="s">
         <v>0</v>
       </c>
-      <c r="S5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="s">
+      <c r="U5" t="s">
         <v>0</v>
       </c>
       <c r="AZ5" s="2"/>
-      <c r="BB5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ5" s="2"/>
-      <c r="BL5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="M6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>0</v>
-      </c>
       <c r="AZ6" s="2"/>
-      <c r="BA6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ6" s="2"/>
-      <c r="BK6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="s">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
         <v>0</v>
       </c>
       <c r="AZ7" s="2"/>
-      <c r="BA7" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ7" s="2"/>
-      <c r="BK7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>0</v>
-      </c>
       <c r="AZ8" s="2"/>
-      <c r="BA8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ8" s="2"/>
-      <c r="BK8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
         <v>0</v>
       </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
       <c r="S9" t="s">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="s">
+      <c r="T9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>0</v>
       </c>
       <c r="AZ9" s="2"/>
-      <c r="BA9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ9" s="2"/>
-      <c r="BK9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="s">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="AZ10" s="2"/>
-      <c r="BA10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ10" s="2"/>
-      <c r="BK10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
-      <c r="X11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="s">
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="AZ11" s="2"/>
-      <c r="BB11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ11" s="2"/>
-      <c r="BL11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,154 +964,154 @@
       <c r="AF12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L22" s="2"/>
       <c r="V22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L32" s="2"/>
       <c r="V32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L42" s="2"/>
       <c r="V42" s="2"/>
       <c r="AF42" s="2"/>
@@ -1405,4 +1120,664 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B7F1B6-BB46-44F1-B5FC-598D4C1064EA}">
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="V10" sqref="M2:V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <f>I2</f>
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <f>H2</f>
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <f>G2</f>
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <f>F2</f>
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <f>E2</f>
+        <v>24</v>
+      </c>
+      <c r="R2">
+        <f>D2</f>
+        <v>24</v>
+      </c>
+      <c r="S2">
+        <f>C2</f>
+        <v>29</v>
+      </c>
+      <c r="T2">
+        <f>B2</f>
+        <v>38</v>
+      </c>
+      <c r="U2" t="str">
+        <f>A2</f>
+        <v>    38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <f>I3</f>
+        <v>23</v>
+      </c>
+      <c r="N3">
+        <f>H3</f>
+        <v>11</v>
+      </c>
+      <c r="O3" t="str">
+        <f>G3</f>
+        <v> 0</v>
+      </c>
+      <c r="P3" t="str">
+        <f>F3</f>
+        <v> 0</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>E3</f>
+        <v> 0</v>
+      </c>
+      <c r="R3" t="str">
+        <f>D3</f>
+        <v> 0</v>
+      </c>
+      <c r="S3">
+        <f>C3</f>
+        <v>21</v>
+      </c>
+      <c r="T3">
+        <f>B3</f>
+        <v>24</v>
+      </c>
+      <c r="U3" t="str">
+        <f>A3</f>
+        <v>    29</v>
+      </c>
+      <c r="V3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M10" si="0">I4</f>
+        <v>23</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N10" si="1">H4</f>
+        <v> 0</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O10" si="2">G4</f>
+        <v> 0</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P10" si="3">F4</f>
+        <v> 0</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q10" si="4">E4</f>
+        <v> 0</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R10" si="5">D4</f>
+        <v> 0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S10" si="6">C4</f>
+        <v>46</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T10" si="7">B4</f>
+        <v>11</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U10" si="8">A4</f>
+        <v>    21</v>
+      </c>
+      <c r="V4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v> 0</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="2"/>
+        <v> 0</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="3"/>
+        <v> 0</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="4"/>
+        <v> 0</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="5"/>
+        <v> 0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="7"/>
+        <v> 0</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="8"/>
+        <v>    35</v>
+      </c>
+      <c r="V5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v> 0</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="2"/>
+        <v> 0</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="3"/>
+        <v> 0</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="4"/>
+        <v> 0</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="5"/>
+        <v> 0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="7"/>
+        <v> 0</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="8"/>
+        <v>     0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v> 0</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="2"/>
+        <v> 0</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="3"/>
+        <v> 0</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="4"/>
+        <v> 0</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="5"/>
+        <v> 0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="7"/>
+        <v> 0</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="8"/>
+        <v>    36</v>
+      </c>
+      <c r="V7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="7"/>
+        <v> 0</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="8"/>
+        <v>    21</v>
+      </c>
+      <c r="V8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="3"/>
+        <v> 0</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="4"/>
+        <v> 0</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="5"/>
+        <v> 0</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="6"/>
+        <v> 0</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="7"/>
+        <v> 0</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="8"/>
+        <v>    21</v>
+      </c>
+      <c r="V9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="4"/>
+        <v> 0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="8"/>
+        <v>    31</v>
+      </c>
+      <c r="V10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Femto-v0.1.2\projects\RogueBoy_Pokitto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AFA78F-3241-4E2B-A3B8-C2CA9F0251C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F93F6E7-818E-4DB9-BA07-5688548967B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-50" windowWidth="19180" windowHeight="10180" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
+    <workbookView xWindow="170" yWindow="1550" windowWidth="19180" windowHeight="10180" activeTab="1" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
   <si>
     <t>x</t>
   </si>
@@ -82,19 +82,10 @@
     <t>  // 2</t>
   </si>
   <si>
-    <t>    35</t>
-  </si>
-  <si>
     <t>  // 3</t>
   </si>
   <si>
-    <t>     0</t>
-  </si>
-  <si>
     <t>  // 4</t>
-  </si>
-  <si>
-    <t>    36</t>
   </si>
   <si>
     <t>  // 5</t>
@@ -133,12 +124,13 @@
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FF6A9955"/>
+      <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -175,10 +167,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26877685-76DE-E24D-ABD4-9D5C27628923}">
   <dimension ref="A1:BK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -689,31 +681,22 @@
       <c r="I3" t="s">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>0</v>
-      </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>0</v>
-      </c>
       <c r="R3" t="s">
         <v>0</v>
       </c>
-      <c r="S3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="Z3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
         <v>0</v>
       </c>
       <c r="AZ3" s="2"/>
@@ -723,28 +706,22 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="I4" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
         <v>0</v>
       </c>
-      <c r="U4" t="s">
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
         <v>0</v>
       </c>
       <c r="AZ4" s="2"/>
@@ -757,19 +734,61 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>0</v>
       </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
       <c r="O5" t="s">
         <v>0</v>
       </c>
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
       <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
         <v>0</v>
       </c>
       <c r="AZ5" s="2"/>
@@ -782,13 +801,34 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
         <v>0</v>
       </c>
+      <c r="S6" t="s">
+        <v>0</v>
+      </c>
       <c r="U6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
         <v>0</v>
       </c>
       <c r="AZ6" s="2"/>
@@ -798,16 +838,10 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
         <v>0</v>
       </c>
       <c r="AZ7" s="2"/>
@@ -820,19 +854,40 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" t="s">
         <v>0</v>
       </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
       <c r="K8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
+      <c r="S8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="s">
         <v>0</v>
       </c>
       <c r="AZ8" s="2"/>
@@ -842,16 +897,13 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
       <c r="E9" t="s">
         <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
@@ -866,22 +918,37 @@
       <c r="M9" t="s">
         <v>0</v>
       </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
       <c r="O9" t="s">
         <v>0</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
         <v>0</v>
       </c>
-      <c r="T9" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="Y9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
         <v>0</v>
       </c>
       <c r="AZ9" s="2"/>
@@ -891,16 +958,22 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
         <v>0</v>
       </c>
       <c r="AZ10" s="2"/>
@@ -910,12 +983,6 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
       <c r="E11" t="s">
         <v>0</v>
       </c>
@@ -925,21 +992,6 @@
       <c r="H11" t="s">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>0</v>
-      </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
@@ -949,16 +1001,19 @@
       <c r="S11" t="s">
         <v>0</v>
       </c>
-      <c r="T11" t="s">
+      <c r="Y11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
         <v>0</v>
       </c>
       <c r="AZ11" s="2"/>
       <c r="BJ11" s="2"/>
     </row>
     <row r="12" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="L12" s="2"/>
       <c r="V12" s="2"/>
       <c r="AF12" s="2"/>
@@ -1126,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B7F1B6-BB46-44F1-B5FC-598D4C1064EA}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="V10" sqref="M2:V10"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1148,49 +1203,49 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="M2">
         <f>I2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N2">
         <f>H2</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="O2">
         <f>G2</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <f>F2</f>
-        <v>24</v>
-      </c>
-      <c r="Q2">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="str">
         <f>E2</f>
-        <v>24</v>
+        <v> 0</v>
       </c>
       <c r="R2">
         <f>D2</f>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S2">
         <f>C2</f>
@@ -1210,58 +1265,58 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="D3">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="M3">
         <f>I3</f>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N3">
         <f>H3</f>
-        <v>11</v>
-      </c>
-      <c r="O3" t="str">
+        <v>38</v>
+      </c>
+      <c r="O3">
         <f>G3</f>
-        <v> 0</v>
-      </c>
-      <c r="P3" t="str">
+        <v>38</v>
+      </c>
+      <c r="P3">
         <f>F3</f>
-        <v> 0</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="str">
         <f>E3</f>
         <v> 0</v>
       </c>
-      <c r="R3" t="str">
+      <c r="R3">
         <f>D3</f>
-        <v> 0</v>
+        <v>11</v>
       </c>
       <c r="S3">
         <f>C3</f>
@@ -1269,11 +1324,11 @@
       </c>
       <c r="T3">
         <f>B3</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="U3" t="str">
         <f>A3</f>
-        <v>    29</v>
+        <v>    38</v>
       </c>
       <c r="V3" t="s">
         <v>13</v>
@@ -1281,70 +1336,70 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>59</v>
+      </c>
+      <c r="F4">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
       </c>
       <c r="I4">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M10" si="0">I4</f>
-        <v>23</v>
-      </c>
-      <c r="N4" t="str">
+        <v>30</v>
+      </c>
+      <c r="N4">
         <f t="shared" ref="N4:N10" si="1">H4</f>
-        <v> 0</v>
-      </c>
-      <c r="O4" t="str">
+        <v>24</v>
+      </c>
+      <c r="O4">
         <f t="shared" ref="O4:O10" si="2">G4</f>
-        <v> 0</v>
-      </c>
-      <c r="P4" t="str">
+        <v>51</v>
+      </c>
+      <c r="P4">
         <f t="shared" ref="P4:P10" si="3">F4</f>
-        <v> 0</v>
-      </c>
-      <c r="Q4" t="str">
+        <v>34</v>
+      </c>
+      <c r="Q4">
         <f t="shared" ref="Q4:Q10" si="4">E4</f>
-        <v> 0</v>
-      </c>
-      <c r="R4" t="str">
+        <v>59</v>
+      </c>
+      <c r="R4">
         <f t="shared" ref="R4:R10" si="5">D4</f>
-        <v> 0</v>
+        <v>48</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S10" si="6">C4</f>
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T10" si="7">B4</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U10" si="8">A4</f>
-        <v>    21</v>
+        <v>    29</v>
       </c>
       <c r="V4" t="s">
         <v>15</v>
@@ -1352,13 +1407,13 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5">
-        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1369,29 +1424,29 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
+      <c r="G5">
+        <v>46</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="N5" t="str">
+        <v>34</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="1"/>
-        <v> 0</v>
-      </c>
-      <c r="O5" t="str">
+        <v>11</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="2"/>
-        <v> 0</v>
+        <v>46</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="3"/>
@@ -1405,31 +1460,31 @@
         <f t="shared" si="5"/>
         <v> 0</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="str">
         <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="T5" t="str">
+        <v> 0</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="7"/>
-        <v> 0</v>
+        <v>11</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="8"/>
-        <v>    35</v>
+        <v>    21</v>
       </c>
       <c r="V5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6">
-        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1440,29 +1495,29 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
+      <c r="G6">
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6">
-        <v>23</v>
+      <c r="I6" t="s">
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v> 0</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="1"/>
         <v> 0</v>
       </c>
-      <c r="O6" t="str">
+      <c r="O6">
         <f t="shared" si="2"/>
-        <v> 0</v>
+        <v>58</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="3"/>
@@ -1476,31 +1531,31 @@
         <f t="shared" si="5"/>
         <v> 0</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="str">
         <f t="shared" si="6"/>
-        <v>45</v>
-      </c>
-      <c r="T6" t="str">
+        <v> 0</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="7"/>
-        <v> 0</v>
+        <v>11</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="8"/>
-        <v>     0</v>
+        <v>    21</v>
       </c>
       <c r="V6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1511,29 +1566,29 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
+      <c r="G7">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>22</v>
       </c>
       <c r="I7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="N7" t="str">
+        <v>22</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="1"/>
-        <v> 0</v>
-      </c>
-      <c r="O7" t="str">
+        <v>22</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="2"/>
-        <v> 0</v>
+        <v>37</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="3"/>
@@ -1547,123 +1602,123 @@
         <f t="shared" si="5"/>
         <v> 0</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="str">
         <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="T7" t="str">
+        <v> 0</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="7"/>
-        <v> 0</v>
+        <v>11</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="8"/>
-        <v>    36</v>
+        <v>    21</v>
       </c>
       <c r="V7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G8">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="T8" t="str">
+        <v>22</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="7"/>
-        <v> 0</v>
+        <v>22</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="8"/>
-        <v>    21</v>
+        <v>    31</v>
       </c>
       <c r="V8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
+      <c r="F9">
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I9">
         <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
@@ -1671,52 +1726,52 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
         <v>11</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="3"/>
-        <v> 0</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="4"/>
         <v> 0</v>
       </c>
-      <c r="R9" t="str">
+      <c r="R9">
         <f t="shared" si="5"/>
-        <v> 0</v>
-      </c>
-      <c r="S9" t="str">
+        <v>21</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="6"/>
-        <v> 0</v>
-      </c>
-      <c r="T9" t="str">
+        <v>38</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="7"/>
-        <v> 0</v>
+        <v>38</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="8"/>
-        <v>    21</v>
+        <v>    38</v>
       </c>
       <c r="V9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1725,16 +1780,16 @@
         <v>37</v>
       </c>
       <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
         <v>22</v>
-      </c>
-      <c r="H10">
-        <v>32</v>
-      </c>
-      <c r="I10">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
@@ -1742,11 +1797,11 @@
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P10">
         <f t="shared" si="3"/>
@@ -1758,22 +1813,22 @@
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="T10">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="8"/>
-        <v>    31</v>
+        <v>    38</v>
       </c>
       <c r="V10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Femto-v0.1.2\projects\RogueBoy_Pokitto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F93F6E7-818E-4DB9-BA07-5688548967B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587EB3F-5075-4EBF-8F9D-661B07A96D69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="170" yWindow="1550" windowWidth="19180" windowHeight="10180" activeTab="1" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
+    <workbookView xWindow="1420" yWindow="2090" windowWidth="19180" windowHeight="10180" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
   <si>
     <t>x</t>
   </si>
@@ -67,18 +67,12 @@
     <t>  // 0</t>
   </si>
   <si>
-    <t>    29</t>
-  </si>
-  <si>
     <t> 0</t>
   </si>
   <si>
     <t>  // 1</t>
   </si>
   <si>
-    <t>    21</t>
-  </si>
-  <si>
     <t>  // 2</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
   </si>
   <si>
     <t>  // 7</t>
-  </si>
-  <si>
-    <t>    31</t>
   </si>
   <si>
     <t>  // 8</t>
@@ -489,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26877685-76DE-E24D-ABD4-9D5C27628923}">
   <dimension ref="A1:BK42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -666,39 +657,6 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>0</v>
-      </c>
       <c r="AZ3" s="2"/>
       <c r="BJ3" s="2"/>
     </row>
@@ -706,24 +664,6 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>0</v>
-      </c>
       <c r="AZ4" s="2"/>
       <c r="BJ4" s="2"/>
     </row>
@@ -731,66 +671,6 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>0</v>
-      </c>
       <c r="AZ5" s="2"/>
       <c r="BJ5" s="2"/>
     </row>
@@ -798,12 +678,6 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
       <c r="I6" t="s">
         <v>0</v>
       </c>
@@ -811,24 +685,6 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="s">
         <v>0</v>
       </c>
       <c r="AZ6" s="2"/>
@@ -838,10 +694,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="AZ7" s="2"/>
@@ -851,43 +704,10 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>0</v>
-      </c>
       <c r="K8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="s">
         <v>0</v>
       </c>
       <c r="AZ8" s="2"/>
@@ -897,58 +717,10 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>0</v>
-      </c>
       <c r="K9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="s">
         <v>0</v>
       </c>
       <c r="AZ9" s="2"/>
@@ -958,22 +730,10 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="K10" t="s">
         <v>0</v>
       </c>
       <c r="AZ10" s="2"/>
@@ -983,31 +743,19 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
+      <c r="I11" t="s">
         <v>0</v>
       </c>
-      <c r="R11" t="s">
+      <c r="J11" t="s">
         <v>0</v>
       </c>
-      <c r="S11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="K11" t="s">
         <v>0</v>
       </c>
       <c r="AZ11" s="2"/>
@@ -1181,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B7F1B6-BB46-44F1-B5FC-598D4C1064EA}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:V10"/>
     </sheetView>
   </sheetViews>
@@ -1200,56 +948,56 @@
         <v>38</v>
       </c>
       <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2">
         <v>29</v>
       </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2">
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="M2">
         <f>I2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N2">
         <f>H2</f>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="O2">
         <f>G2</f>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="P2">
         <f>F2</f>
-        <v>23</v>
-      </c>
-      <c r="Q2" t="str">
+        <v>24</v>
+      </c>
+      <c r="Q2">
         <f>E2</f>
-        <v> 0</v>
+        <v>24</v>
       </c>
       <c r="R2">
         <f>D2</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S2">
         <f>C2</f>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="T2">
         <f>B2</f>
@@ -1271,44 +1019,44 @@
         <v>38</v>
       </c>
       <c r="C3">
+        <v>38</v>
+      </c>
+      <c r="D3">
         <v>21</v>
       </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>38</v>
-      </c>
-      <c r="H3">
-        <v>38</v>
-      </c>
-      <c r="I3">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
       </c>
       <c r="M3">
         <f>I3</f>
-        <v>38</v>
-      </c>
-      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="N3" t="str">
         <f>H3</f>
-        <v>38</v>
-      </c>
-      <c r="O3">
+        <v> 0</v>
+      </c>
+      <c r="O3" t="str">
         <f>G3</f>
-        <v>38</v>
-      </c>
-      <c r="P3">
+        <v> 0</v>
+      </c>
+      <c r="P3" t="str">
         <f>F3</f>
-        <v>23</v>
+        <v> 0</v>
       </c>
       <c r="Q3" t="str">
         <f>E3</f>
@@ -1316,11 +1064,11 @@
       </c>
       <c r="R3">
         <f>D3</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="S3">
         <f>C3</f>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="T3">
         <f>B3</f>
@@ -1331,63 +1079,63 @@
         <v>    38</v>
       </c>
       <c r="V3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>24</v>
       </c>
       <c r="D4">
-        <v>48</v>
-      </c>
-      <c r="E4">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>51</v>
-      </c>
-      <c r="H4">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M10" si="0">I4</f>
-        <v>30</v>
-      </c>
-      <c r="N4">
+        <v>23</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" ref="N4:N10" si="1">H4</f>
-        <v>24</v>
+        <v> 0</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O10" si="2">G4</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P10" si="3">F4</f>
-        <v>34</v>
-      </c>
-      <c r="Q4">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="str">
         <f t="shared" ref="Q4:Q10" si="4">E4</f>
-        <v>59</v>
+        <v> 0</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R10" si="5">D4</f>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S10" si="6">C4</f>
@@ -1395,58 +1143,58 @@
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T10" si="7">B4</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U10" si="8">A4</f>
-        <v>    29</v>
+        <v>    38</v>
       </c>
       <c r="V4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>46</v>
-      </c>
-      <c r="H5">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5">
         <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v> 0</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="3"/>
@@ -1466,46 +1214,46 @@
       </c>
       <c r="T5">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="8"/>
-        <v>    21</v>
+        <v>    38</v>
       </c>
       <c r="V5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
@@ -1517,7 +1265,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="3"/>
@@ -1537,37 +1285,37 @@
       </c>
       <c r="T6">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="8"/>
-        <v>    21</v>
+        <v>    38</v>
       </c>
       <c r="V6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>22</v>
@@ -1576,7 +1324,7 @@
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
@@ -1588,7 +1336,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="3"/>
@@ -1608,37 +1356,37 @@
       </c>
       <c r="T7">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="8"/>
-        <v>    21</v>
+        <v>    38</v>
       </c>
       <c r="V7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>22</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>38</v>
@@ -1647,7 +1395,7 @@
         <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
@@ -1659,19 +1407,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
@@ -1679,14 +1427,14 @@
       </c>
       <c r="T8">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="8"/>
-        <v>    31</v>
+        <v>    38</v>
       </c>
       <c r="V8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
@@ -1700,16 +1448,16 @@
         <v>38</v>
       </c>
       <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>38</v>
@@ -1718,7 +1466,7 @@
         <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
@@ -1730,19 +1478,19 @@
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P9">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="Q9" t="str">
+        <v>38</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="4"/>
-        <v> 0</v>
+        <v>38</v>
       </c>
       <c r="R9">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
@@ -1757,7 +1505,7 @@
         <v>    38</v>
       </c>
       <c r="V9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
@@ -1771,16 +1519,16 @@
         <v>38</v>
       </c>
       <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>38</v>
@@ -1789,7 +1537,7 @@
         <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
@@ -1801,19 +1549,19 @@
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P10">
         <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="Q10" t="str">
+        <v>38</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="4"/>
-        <v> 0</v>
+        <v>38</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
@@ -1828,7 +1576,7 @@
         <v>    38</v>
       </c>
       <c r="V10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Femto-v0.1.2\projects\RogueBoy_Pokitto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587EB3F-5075-4EBF-8F9D-661B07A96D69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D5B1A-BD89-49AD-862D-07818659A185}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="2090" windowWidth="19180" windowHeight="10180" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
+    <workbookView xWindow="-50" yWindow="1980" windowWidth="19180" windowHeight="10180" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="29">
   <si>
     <t>x</t>
   </si>
@@ -92,6 +92,33 @@
   </si>
   <si>
     <t>  // 8</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -481,12 +508,13 @@
   <dimension ref="A1:BK42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="3.1640625" style="1"/>
+    <col min="10" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.1640625" style="2"/>
     <col min="22" max="22" width="3.1640625" style="2"/>
     <col min="32" max="32" width="3.1640625" style="2"/>
@@ -495,85 +523,85 @@
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.35">
       <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>8</v>
       </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
       <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
         <v>1</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>3</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>4</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>5</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>6</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>7</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>8</v>
       </c>
-      <c r="U1">
-        <v>9</v>
-      </c>
       <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
         <v>1</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>3</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>4</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>5</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>6</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>7</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>8</v>
-      </c>
-      <c r="AE1">
-        <v>9</v>
       </c>
       <c r="AG1">
         <v>1</v>
@@ -655,36 +683,246 @@
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>0</v>
       </c>
       <c r="AZ3" s="2"/>
       <c r="BJ3" s="2"/>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>0</v>
       </c>
       <c r="AZ4" s="2"/>
       <c r="BJ4" s="2"/>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>0</v>
       </c>
       <c r="AZ5" s="2"/>
       <c r="BJ5" s="2"/>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
         <v>0</v>
       </c>
       <c r="AZ6" s="2"/>
@@ -692,22 +930,73 @@
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>25</v>
       </c>
       <c r="AZ7" s="2"/>
       <c r="BJ7" s="2"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="s">
         <v>0</v>
       </c>
       <c r="AZ8" s="2"/>
@@ -715,12 +1004,54 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="s">
         <v>0</v>
       </c>
       <c r="AZ9" s="2"/>
@@ -728,12 +1059,54 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE10" t="s">
         <v>0</v>
       </c>
       <c r="AZ10" s="2"/>
@@ -741,11 +1114,23 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
@@ -756,6 +1141,60 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
         <v>0</v>
       </c>
       <c r="AZ11" s="2"/>
@@ -771,10 +1210,145 @@
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>13</v>
+      </c>
+      <c r="R13">
+        <v>14</v>
+      </c>
+      <c r="S13">
+        <v>15</v>
+      </c>
+      <c r="T13">
+        <v>16</v>
+      </c>
+      <c r="U13">
+        <v>17</v>
+      </c>
+      <c r="W13">
+        <v>18</v>
+      </c>
+      <c r="X13">
+        <v>19</v>
+      </c>
+      <c r="Y13">
+        <v>20</v>
+      </c>
+      <c r="Z13">
+        <v>21</v>
+      </c>
+      <c r="AA13">
+        <v>22</v>
+      </c>
+      <c r="AB13">
+        <v>23</v>
+      </c>
+      <c r="AC13">
+        <v>24</v>
+      </c>
+      <c r="AD13">
+        <v>25</v>
+      </c>
+      <c r="AE13">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
+      </c>
+      <c r="C14">
+        <v>-18</v>
+      </c>
+      <c r="D14">
+        <v>-17</v>
+      </c>
+      <c r="E14">
+        <v>-16</v>
+      </c>
+      <c r="F14">
+        <v>-15</v>
+      </c>
+      <c r="G14">
+        <v>-14</v>
+      </c>
+      <c r="H14">
+        <v>-13</v>
+      </c>
+      <c r="I14">
+        <v>-12</v>
+      </c>
+      <c r="J14">
+        <v>-11</v>
+      </c>
+      <c r="K14">
+        <v>-10</v>
+      </c>
+      <c r="M14">
+        <v>-9</v>
+      </c>
+      <c r="N14">
+        <v>-8</v>
+      </c>
+      <c r="O14">
+        <v>-7</v>
+      </c>
+      <c r="P14">
+        <v>-6</v>
+      </c>
+      <c r="Q14">
+        <v>-5</v>
+      </c>
+      <c r="R14">
+        <v>-4</v>
+      </c>
+      <c r="S14">
+        <v>-3</v>
+      </c>
+      <c r="T14">
+        <v>-2</v>
+      </c>
+      <c r="U14">
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.35">

--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Femto-v0.1.2\projects\RogueBoy_Pokitto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D5B1A-BD89-49AD-862D-07818659A185}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7695D747-907A-4C92-B0DD-F2095F20BDC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50" yWindow="1980" windowWidth="19180" windowHeight="10180" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
+    <workbookView minimized="1" xWindow="950" yWindow="2270" windowWidth="24530" windowHeight="15550" activeTab="1" xr2:uid="{5767BE84-CE79-9349-AEBF-C6B4E4C3D92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="32">
   <si>
     <t>x</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>     0</t>
+  </si>
+  <si>
+    <t>  // 0f</t>
+  </si>
+  <si>
+    <t>    21</t>
   </si>
 </sst>
 </file>
@@ -507,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26877685-76DE-E24D-ABD4-9D5C27628923}">
   <dimension ref="A1:BK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
@@ -1503,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B7F1B6-BB46-44F1-B5FC-598D4C1064EA}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:V10"/>
     </sheetView>
   </sheetViews>
@@ -1516,16 +1525,16 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>24</v>
@@ -1533,29 +1542,29 @@
       <c r="F2">
         <v>24</v>
       </c>
-      <c r="G2">
-        <v>24</v>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
       </c>
       <c r="M2">
         <f>I2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N2">
         <f>H2</f>
-        <v>24</v>
-      </c>
-      <c r="O2">
+        <v>38</v>
+      </c>
+      <c r="O2" t="str">
         <f>G2</f>
-        <v>24</v>
+        <v> 0</v>
       </c>
       <c r="P2">
         <f>F2</f>
@@ -1567,19 +1576,19 @@
       </c>
       <c r="R2">
         <f>D2</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S2">
         <f>C2</f>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="T2">
         <f>B2</f>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U2" t="str">
         <f>A2</f>
-        <v>    38</v>
+        <v>     0</v>
       </c>
       <c r="V2" t="s">
         <v>10</v>
@@ -1587,16 +1596,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>38</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1604,29 +1613,29 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
+      <c r="G3">
         <v>23</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="str">
         <f>I3</f>
+        <v> 0</v>
+      </c>
+      <c r="N3">
+        <f>H3</f>
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <f>G3</f>
         <v>23</v>
-      </c>
-      <c r="N3" t="str">
-        <f>H3</f>
-        <v> 0</v>
-      </c>
-      <c r="O3" t="str">
-        <f>G3</f>
-        <v> 0</v>
       </c>
       <c r="P3" t="str">
         <f>F3</f>
@@ -1636,21 +1645,21 @@
         <f>E3</f>
         <v> 0</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="str">
         <f>D3</f>
-        <v>21</v>
-      </c>
-      <c r="S3">
+        <v> 0</v>
+      </c>
+      <c r="S3" t="str">
         <f>C3</f>
-        <v>38</v>
+        <v> 0</v>
       </c>
       <c r="T3">
         <f>B3</f>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="U3" t="str">
         <f>A3</f>
-        <v>    38</v>
+        <v>    21</v>
       </c>
       <c r="V3" t="s">
         <v>12</v>
@@ -1658,27 +1667,27 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>47</v>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
         <v>11</v>
       </c>
       <c r="I4">
@@ -1691,37 +1700,37 @@
         <f t="shared" ref="M4:M10" si="0">I4</f>
         <v>23</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N4">
         <f t="shared" ref="N4:N10" si="1">H4</f>
-        <v> 0</v>
+        <v>11</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O10" si="2">G4</f>
-        <v>36</v>
-      </c>
-      <c r="P4">
+        <v>46</v>
+      </c>
+      <c r="P4" t="str">
         <f t="shared" ref="P4:P10" si="3">F4</f>
-        <v>47</v>
+        <v> 0</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" ref="Q4:Q10" si="4">E4</f>
         <v> 0</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="str">
         <f t="shared" ref="R4:R10" si="5">D4</f>
-        <v>35</v>
-      </c>
-      <c r="S4">
+        <v> 0</v>
+      </c>
+      <c r="S4" t="str">
         <f t="shared" ref="S4:S10" si="6">C4</f>
-        <v>24</v>
-      </c>
-      <c r="T4">
+        <v> 0</v>
+      </c>
+      <c r="T4" t="str">
         <f t="shared" ref="T4:T10" si="7">B4</f>
-        <v>29</v>
+        <v> 0</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U10" si="8">A4</f>
-        <v>    38</v>
+        <v>    21</v>
       </c>
       <c r="V4" t="s">
         <v>13</v>
@@ -1729,10 +1738,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1747,7 +1756,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -1768,7 +1777,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="3"/>
@@ -1786,13 +1795,13 @@
         <f t="shared" si="6"/>
         <v> 0</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="str">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v> 0</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="8"/>
-        <v>    38</v>
+        <v>    21</v>
       </c>
       <c r="V5" t="s">
         <v>14</v>
@@ -1800,10 +1809,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1818,7 +1827,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -1839,7 +1848,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="3"/>
@@ -1857,13 +1866,13 @@
         <f t="shared" si="6"/>
         <v> 0</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="str">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v> 0</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="8"/>
-        <v>    38</v>
+        <v>    21</v>
       </c>
       <c r="V6" t="s">
         <v>15</v>
@@ -1871,10 +1880,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1889,28 +1898,28 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="N7">
+        <v>37</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v> 0</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="3"/>
@@ -1928,13 +1937,13 @@
         <f t="shared" si="6"/>
         <v> 0</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="str">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v> 0</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="8"/>
-        <v>    38</v>
+        <v>    21</v>
       </c>
       <c r="V7" t="s">
         <v>16</v>
@@ -1942,70 +1951,70 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>32</v>
-      </c>
-      <c r="H8">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="N8">
+        <v>23</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v> 0</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="T8">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="8"/>
-        <v>    38</v>
+        <v>     0</v>
       </c>
       <c r="V8" t="s">
         <v>17</v>
@@ -2016,63 +2025,63 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>38</v>
-      </c>
-      <c r="E9">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>38</v>
-      </c>
-      <c r="G9">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="N9">
+        <v>23</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="O9">
+        <v> 0</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="P9">
+        <v> 0</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="Q9">
+        <v> 0</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="R9">
+        <v> 0</v>
+      </c>
+      <c r="R9" t="str">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v> 0</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="T9">
         <f t="shared" si="7"/>
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="8"/>
@@ -2086,64 +2095,64 @@
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>38</v>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>38</v>
-      </c>
-      <c r="E10">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>38</v>
-      </c>
-      <c r="I10">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v> 0</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P10">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="Q10">
+        <v>37</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v> 0</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="T10">
+        <v>22</v>
+      </c>
+      <c r="T10" t="str">
         <f t="shared" si="7"/>
-        <v>38</v>
+        <v> 0</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="8"/>
